--- a/src/reviews/tests/fixtures/distrib_list_wrong_category.xlsx
+++ b/src/reviews/tests/fixtures/distrib_list_wrong_category.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>user1@test.com</t>
   </si>
@@ -220,9 +220,6 @@
       <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
